--- a/src/analysis_examples/circadb/results_lomb/cosinor_10359982_atf6_.xlsx
+++ b/src/analysis_examples/circadb/results_lomb/cosinor_10359982_atf6_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.27855906903987754, 0.35757969832533515]</t>
+          <t>[0.27928611321845287, 0.3568526541467598]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1.270095140171179e-13</v>
+        <v>8.815170815523743e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>1.270095140171179e-13</v>
+        <v>8.815170815523743e-14</v>
       </c>
       <c r="O2" t="n">
         <v>-0.3396316382259235</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.35210933317874366, 0.3969845714042069]</t>
+          <t>[0.35211689275560987, 0.3969770118273407]</t>
         </is>
       </c>
       <c r="U2" t="n">
